--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\101_Dream\Zeus\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF33CE5-C633-4532-AAD5-E35510541091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D93F01E-6B44-4356-80C8-301FCBF7DCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1665" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1725" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -88,19 +88,21 @@
     <t>带有强力攻击技能2</t>
   </si>
   <si>
-    <t>米克尔3</t>
-  </si>
-  <si>
     <t>带有强力攻击技能3</t>
   </si>
   <si>
-    <t>米克尔4</t>
-  </si>
-  <si>
     <t>带有强力攻击技能4</t>
   </si>
   <si>
     <t>NPC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +492,7 @@
   <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -632,7 +634,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>21</v>
@@ -660,11 +662,11 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -689,11 +691,11 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
